--- a/conhecidos.xlsx
+++ b/conhecidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>energia</t>
+  </si>
+  <si>
+    <t>carboidratos</t>
   </si>
   <si>
     <t>proteinas</t>
@@ -83,7 +86,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -123,19 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -442,32 +439,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +478,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -518,6 +516,9 @@
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
